--- a/PENDING_ASSIGNMENTS.xlsx
+++ b/PENDING_ASSIGNMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACCOMPLISHMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40BAFC-31EF-4070-93A6-71D58ABB2BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A6C7D-1D63-4256-A141-2A9E68837D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Module</t>
   </si>
@@ -48,24 +48,6 @@
     <t>TRIM03|Module 11</t>
   </si>
   <si>
-    <t>Group of 4 to 6 people have to prepare a PPT on a real-worldbig data use case implementation based on the industry/domain allotted for them</t>
-  </si>
-  <si>
-    <t>Groups are expected to prepare the PPT which comprises of slides pertaining to the below points</t>
-  </si>
-  <si>
-    <t>1. Details of the org/company that the group has chosen as their use case</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2. The Big Data problem that the company/org had in front of them</t>
-  </si>
-  <si>
-    <t>4. The technical details of the solution, like the big data stackthat is used, the different components of the ecosystem, overall architecture of the solution, the date pipeline diagram etc</t>
-  </si>
-  <si>
-    <t>3. The solution approach that the company/org took to solve the problem</t>
-  </si>
-  <si>
     <t>Big Data Analytics |Group Assignment</t>
   </si>
   <si>
@@ -91,15 +73,6 @@
   </si>
   <si>
     <t>Deep Learning Applications in Business |Final Exam</t>
-  </si>
-  <si>
-    <t>To Run Deep Learning Multiclass Classification code on UC Irvine Wine                                                                     Dataset Link:https://archive.ics.uci.edu/ml/datasets/wine</t>
-  </si>
-  <si>
-    <t>To Apply Zero Shot Text Classification Model on the “Description” Field and predict the “Genre” Labels.
-Do the text classificationfor first 100 entries
-You can use the zero shot model given at https://huggingface.co/facebook/bart-large-mnli
-Please make a ppt according to the REVA template.</t>
   </si>
   <si>
     <t>To performMulti Class Image Classification on the Weather dataset
@@ -127,23 +100,35 @@
     <t>Consulting in Analytics | Final Exam</t>
   </si>
   <si>
-    <t>Consulting in Analytics</t>
+    <t>TO BE DISCUSSED -NOT DECIDED YET</t>
+  </si>
+  <si>
+    <t>To Run Deep Learning Multiclass Classification code on UC Irvine Wine.Dataset Link: https://archive.ics.uci.edu/ml/datasets/wine</t>
+  </si>
+  <si>
+    <t>To Apply Zero Shot Text Classification Model on the “Description” Field and predict the “Genre” Labels.
+Do the text classification for first 100 entries
+You can use the zero shot model given at https://huggingface.co/facebook/bart-large-mnli
+Please make a ppt according to the REVA template.</t>
+  </si>
+  <si>
+    <t>Group of 4 to 6 people have to prepare a PPT on a real-worldbig data use case implementation based on the industry/domain allotted for them.
+Groups are expected to prepare the PPT which comprises of slides pertaining to the below points.
+1. Details of the org/company that the group has chosen as their use case.
+ 2. The Big Data problem that the company/org had in front of them.
+3. The solution approach that the company/org took to solve the problem.
+4. The technical details of the solution, like the big data stackthat is used, the different components of the ecosystem, overall architecture of the solution, the date pipeline diagram etc.</t>
+  </si>
+  <si>
+    <t>Consulting in Analytics-Assignment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,8 +147,23 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,7 +190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,63 +396,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,102 +750,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="91.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="102.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="140.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
         <f t="shared" ref="A3:A16" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    </row>
+    <row r="5" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -828,125 +854,104 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="D7" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="9"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
       <c r="B9" s="9"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
       <c r="B10" s="9"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="9"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="10"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <f>ROW(A7)</f>
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <f t="shared" ref="A14:A16" si="1">ROW(A8)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="D7:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PENDING_ASSIGNMENTS.xlsx
+++ b/PENDING_ASSIGNMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACCOMPLISHMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A6C7D-1D63-4256-A141-2A9E68837D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB8A5E-87EB-4624-BFB7-EA1470A3F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Module</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>TRIM 04 | Module 02</t>
-  </si>
-  <si>
-    <t>Consulting in Analytics | Final Exam</t>
-  </si>
-  <si>
-    <t>TO BE DISCUSSED -NOT DECIDED YET</t>
   </si>
   <si>
     <t>To Run Deep Learning Multiclass Classification code on UC Irvine Wine.Dataset Link: https://archive.ics.uci.edu/ml/datasets/wine</t>
@@ -163,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +184,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -413,6 +401,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -422,42 +426,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -748,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,13 +770,13 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>20</v>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="140.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A16" si="0">ROW(A2)</f>
+        <f t="shared" ref="A3:A7" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -800,8 +785,8 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>21</v>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -815,7 +800,7 @@
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -830,7 +815,7 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -843,80 +828,80 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>22</v>
+      <c r="D7" s="23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f>ROW(A7)</f>
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
-        <f t="shared" ref="A14:A16" si="1">ROW(A8)</f>
+        <f t="shared" ref="A14:A15" si="1">ROW(A8)</f>
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
@@ -926,25 +911,10 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PENDING_ASSIGNMENTS.xlsx
+++ b/PENDING_ASSIGNMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACCOMPLISHMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB8A5E-87EB-4624-BFB7-EA1470A3F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE33B8-DCF1-4490-ACAB-A03FE970FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PENDING_ASSIGNMENTS.xlsx
+++ b/PENDING_ASSIGNMENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACCOMPLISHMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE33B8-DCF1-4490-ACAB-A03FE970FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3ECF3A-AF31-447C-924D-B1847D5AF08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Module</t>
   </si>
@@ -116,12 +116,15 @@
   <si>
     <t>Consulting in Analytics-Assignment</t>
   </si>
+  <si>
+    <t>Consulting in Analytics | Final Exam</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +159,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -384,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -452,6 +468,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +857,7 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -901,7 +930,7 @@
       <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
@@ -915,6 +944,18 @@
         <v>21</v>
       </c>
       <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="26">
+        <v>10</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
